--- a/ResultadosLuna/resultados_modelos_DIC_3.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAAE60C-5728-46FF-B9C5-51B3D3B46A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99AD44-E33E-410B-8696-44AB15C26888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Modelo</t>
   </si>
@@ -34,12 +34,6 @@
     <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive + COG_global</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob +     apoe2</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + DIAN_EYO + gender + cdrglob + COG_executive +  COG_global</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2 + gender) + cdrglob + COG_global + COG_executive</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +  COG_global + COG_executive</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive</t>
   </si>
   <si>
@@ -70,51 +61,15 @@
     <t>mri_z_mu_1 ~ DIAN_EYO * (Mutationtype2 + gender + cdrglob)</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2 + gender + cdrglob +  COG_global + COG_executive)</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2 + CSF_XMAP_AB42_LONG</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     COG_executive</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ Mutationtype2 + (DIAN_EYO) * gender + cdrglob + VISITAGEc</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ apoe2 * (DIAN_EYO + gender + Mutationtype2) + cdrglob +  COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO + apoe2 + Mutationtype2 + gender + cdrglob +     COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2 + CSF_XMAP_AB42_LONG + CSF_XMAP_PTAU_LONG</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender + cdrglob)</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc + COG_global + COG_attention</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc + COG_global + COG_attention + COG_language + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc + COG_global + COG_attention + COG_language</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +     VISITAGEc + COG_global + COG_attention + COG_language + COG_executive +     COG_ep_mem</t>
-  </si>
-  <si>
     <t>mri_z_mu_1 ~ DIAN_EYO + gender + cdrglob</t>
   </si>
   <si>
@@ -143,6 +98,54 @@
   </si>
   <si>
     <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender + cdrglob) + apoe2 + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               CSF_XMAP_AB42_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               COG_executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               CSF_XMAP_AB42_LONG + CSF_XMAP_PTAU_LONG</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + apoe2</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ Mutationtype2 + DIAN_EYO + gender + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2 + gender + cdrglob + COG_global + COG_executive)</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_executive</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ apoe2 * (DIAN_EYO + gender + Mutationtype2) + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO + apoe2 + Mutationtype2 + gender + cdrglob + COG_executive</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +  VISITAGEc</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language +</t>
+  </si>
+  <si>
+    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               COG_executive + COG_ep_mem</t>
   </si>
 </sst>
 </file>
@@ -476,15 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.5703125" customWidth="1"/>
+    <col min="1" max="1" width="122.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +514,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2343.9920000000002</v>
@@ -521,7 +522,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2345.63</v>
@@ -529,7 +530,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2345.75</v>
@@ -537,7 +538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2346.2399999999998</v>
@@ -545,7 +546,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2349.6480000000001</v>
@@ -553,7 +554,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2350.02</v>
@@ -561,7 +562,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2350.0830000000001</v>
@@ -569,71 +570,68 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2352.29</v>
+        <v>2352.3879999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2352.3879999999999</v>
+        <v>2352.8620000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>2352.8620000000001</v>
+        <v>2352.8989999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>2352.8989999999999</v>
+        <v>2353.4589999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>2353.4589999999998</v>
+        <v>2354.8319999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>2354.8319999999999</v>
+        <v>2356.1610000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>2356.1610000000001</v>
+        <v>2356.317</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2356.317</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>2356.7469999999998</v>
@@ -641,7 +639,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>2357.5540000000001</v>
@@ -649,7 +647,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>2357.877</v>
@@ -657,7 +655,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>2358.0529999999999</v>
@@ -665,7 +663,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>2358.067</v>
@@ -673,7 +671,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>2358.1559999999999</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>2358.855</v>
@@ -689,126 +687,141 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2359.2869999999998</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2360.973</v>
+        <v>2359.2869999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>2362.0630000000001</v>
+        <v>2360.973</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>2363.1370000000002</v>
+        <v>2362.0630000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>2364.502</v>
+        <v>2363.1370000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>2367.3200000000002</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>2367.84744</v>
+        <v>2364.502</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>2374.377</v>
+        <v>2367.3200000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>2385.0540000000001</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>2395.1840000000002</v>
+        <v>2367.84744</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>2397.723</v>
+        <v>2374.377</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>2444.4360000000001</v>
+        <v>2385.0540000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>2534.835</v>
+        <v>2395.1840000000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>2397.723</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>2444.4360000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>2534.835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
-    <sortCondition ref="B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
+    <sortCondition ref="B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ResultadosLuna/resultados_modelos_DIC_3.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99AD44-E33E-410B-8696-44AB15C26888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EF5D5-ACFC-4B11-8616-715ADC99ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,130 +22,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
     <t>DIC</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive + COG_global + apoe2</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2 + gender) + cdrglob + COG_global + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (Mutationtype2) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO + Mutationtype2 + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (Mutationtype2 + gender + cdrglob)</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + (DIAN_EYO) * gender + cdrglob + VISITAGEc</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender + cdrglob)</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2)</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ apoe2 + Mutationtype2</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender + apoe2) + cdrglob + COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender + cdrglob) + apoe2 + COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               CSF_XMAP_AB42_LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               COG_executive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               CSF_XMAP_AB42_LONG + CSF_XMAP_PTAU_LONG</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 * (DIAN_EYO + gender) + cdrglob + apoe2</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + DIAN_EYO + gender + cdrglob + COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2 + gender + cdrglob + COG_global + COG_executive)</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ apoe2 * (DIAN_EYO + gender + Mutationtype2) + cdrglob + COG_executive + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO + apoe2 + Mutationtype2 + gender + cdrglob + COG_executive</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +  VISITAGEc</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language +</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               COG_executive + COG_ep_mem</t>
+    <t>Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive + COG_global + apoe2</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender) + cdrglob + apoe2</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender + apoe2) + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender + cdrglob) + apoe2 + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2 + gender) + cdrglob + COG_global + COG_executive</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender) + cdrglob + COG_executive</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender) + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (Mutationtype2) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO + Mutationtype2 + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (Mutationtype2 + gender + cdrglob)</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2 + gender + cdrglob + COG_global + COG_executive)</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2 +</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_executive</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + (DIAN_EYO) * gender + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t>apoe2 * (DIAN_EYO + gender + Mutationtype2) + cdrglob + COG_executive + COG_global</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global</t>
+  </si>
+  <si>
+    <t>DIAN_EYO + apoe2 + Mutationtype2 + gender + cdrglob + COG_executive</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob +  VISITAGEc</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO + gender + cdrglob)</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language +</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO + gender + cdrglob</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + COG_executive</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2)</t>
+  </si>
+  <si>
+    <t>apoe2 + Mutationtype2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COG_executive + COG_ep_mem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COG_executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            CSF_XMAP_AB42_LONG + CSF_XMAP_PTAU_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            CSF_XMAP_AB42_LONG</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -490,15 +490,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2338.0500000000002</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2339.7800000000002</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2343.9920000000002</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2345.63</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2345.75</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2346.2399999999998</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2349.6480000000001</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2350.02</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2350.0830000000001</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2352.3879999999999</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2352.8620000000001</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2352.8989999999999</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2353.4589999999998</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2354.8319999999999</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2356.1610000000001</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2356.317</v>
@@ -626,12 +626,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2356.7469999999998</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2357.5540000000001</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2357.877</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2358.0529999999999</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2358.067</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2358.1559999999999</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>2358.855</v>
@@ -687,12 +687,12 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>2359.2869999999998</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2360.973</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2362.0630000000001</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2363.1370000000002</v>
@@ -724,12 +724,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>2364.502</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2367.3200000000002</v>
@@ -745,12 +745,12 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2367.84744</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>2374.377</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>2385.0540000000001</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>2395.1840000000002</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>2397.723</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>2444.4360000000001</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>2534.835</v>
@@ -806,17 +806,17 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ResultadosLuna/resultados_modelos_DIC_3.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EF5D5-ACFC-4B11-8616-715ADC99ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7D60E-DCA3-466D-AC81-50FADCE0BF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>DIC</t>
   </si>
@@ -109,12 +109,6 @@
     <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention</t>
   </si>
   <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language +</t>
-  </si>
-  <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + COG_language</t>
-  </si>
-  <si>
     <t>DIAN_EYO * (apoe2) + gender + cdrglob</t>
   </si>
   <si>
@@ -133,12 +127,6 @@
     <t>apoe2 + Mutationtype2</t>
   </si>
   <si>
-    <t xml:space="preserve">            COG_executive + COG_ep_mem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            COG_executive</t>
-  </si>
-  <si>
     <t xml:space="preserve">            CSF_XMAP_AB42_LONG + CSF_XMAP_PTAU_LONG</t>
   </si>
   <si>
@@ -146,6 +134,21 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COG_language + COG_executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COG_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COG_language + COG_executive + COG_ep_mem</t>
   </si>
 </sst>
 </file>
@@ -479,24 +482,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="A1:B42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="122.85546875" customWidth="1"/>
+    <col min="1" max="1" width="86.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,7 +509,7 @@
         <v>2338.0500000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -512,7 +517,7 @@
         <v>2339.7800000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -520,7 +525,7 @@
         <v>2343.9920000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -528,7 +533,7 @@
         <v>2345.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -536,7 +541,7 @@
         <v>2345.75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -544,7 +549,7 @@
         <v>2346.2399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -552,7 +557,7 @@
         <v>2349.6480000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -560,7 +565,7 @@
         <v>2350.02</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -568,7 +573,7 @@
         <v>2350.0830000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -576,7 +581,7 @@
         <v>2352.3879999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -584,7 +589,7 @@
         <v>2352.8620000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -592,7 +597,7 @@
         <v>2352.8989999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -600,7 +605,7 @@
         <v>2353.4589999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -608,7 +613,7 @@
         <v>2354.8319999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -616,7 +621,7 @@
         <v>2356.1610000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -624,20 +629,20 @@
         <v>2356.317</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>2356.7469999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -645,7 +650,7 @@
         <v>2357.5540000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -653,7 +658,7 @@
         <v>2357.877</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -661,7 +666,7 @@
         <v>2358.0529999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -669,7 +674,7 @@
         <v>2358.067</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -677,7 +682,7 @@
         <v>2358.1559999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -685,20 +690,20 @@
         <v>2358.855</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2359.2869999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -706,7 +711,7 @@
         <v>2360.973</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -714,7 +719,7 @@
         <v>2362.0630000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -722,106 +727,111 @@
         <v>2363.1370000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>2364.502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>38</v>
-      </c>
-      <c r="B32">
-        <v>2364.502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
       </c>
       <c r="B33">
         <v>2367.3200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2367.84744</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>2374.377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>2385.0540000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>2395.1840000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
-        <v>2374.377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>2385.0540000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40">
+        <v>2397.723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
-        <v>2395.1840000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B41">
+        <v>2444.4360000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
-        <v>2397.723</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <v>2444.4360000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
+      <c r="B42">
         <v>2534.835</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
-    <sortCondition ref="B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B42">
+    <sortCondition ref="B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
